--- a/public/be_tempImportExam.xlsx
+++ b/public/be_tempImportExam.xlsx
@@ -39,10 +39,10 @@
     <t>Soal tanpa gambar no 6</t>
   </si>
   <si>
-    <t>be_b545fa76-a7e3-4c5f-9fb8-b79261ca764c.png</t>
-  </si>
-  <si>
-    <t>be_643cd685-e88c-4582-86b7-f1c8a5412f17.png</t>
+    <t>be_a502e86f-535e-4a6c-8621-9102a3d08a31.png</t>
+  </si>
+  <si>
+    <t>be_eb2e26e2-ea8e-4b29-b068-f1d79ef39e17.png</t>
   </si>
 </sst>
 </file>
